--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>章节</t>
   </si>
@@ -27,7 +27,16 @@
     <t>总结</t>
   </si>
   <si>
-    <t>章节练习</t>
+    <t>知识点练习题</t>
+  </si>
+  <si>
+    <t>思维导图总结</t>
+  </si>
+  <si>
+    <t>章节测试</t>
+  </si>
+  <si>
+    <t>错题回顾</t>
   </si>
   <si>
     <t>1、信息系统开发基础</t>
@@ -39,7 +48,7 @@
     <t>2、信息化与系统集成技术</t>
   </si>
   <si>
-    <t>3、计算机网络基础</t>
+    <t>3、计算机网络基础（后续学计算机网络处理）</t>
   </si>
   <si>
     <t>4、信息系统安全管理</t>
@@ -110,10 +119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -125,7 +134,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,14 +142,52 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,13 +201,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -169,15 +225,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,85 +276,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +286,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -289,13 +304,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,7 +412,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,49 +466,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,103 +484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,69 +515,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,6 +543,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -595,6 +601,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -603,10 +624,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,143 +636,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -759,16 +783,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1118,261 +1166,374 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="49.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="49.125" style="3" customWidth="1"/>
     <col min="2" max="3" width="20.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="4" max="5" width="20.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28.5" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="4" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:7">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="6" t="s">
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:7">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="4" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="4" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:7">
+      <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:7">
+      <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="4" t="s">
+      <c r="B9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:7">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="4" t="s">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:7">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="4" t="s">
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:7">
+      <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="4" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:7">
+      <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="4" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:7">
+      <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="4" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:7">
+      <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="4" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:7">
+      <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" s="4" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:7">
+      <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="4" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:7">
+      <c r="A18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="4" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:7">
+      <c r="A19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="4" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:7">
+      <c r="A20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="4"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:4">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:4">
-      <c r="A26" s="4" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:7">
+      <c r="A21" s="6"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:7">
+      <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:4">
-      <c r="A27" s="4" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:7">
+      <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:4">
-      <c r="A28" s="4" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:7">
+      <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:7">
+      <c r="A25" s="6"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:7">
+      <c r="A26" s="6"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:7">
+      <c r="A27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:7">
+      <c r="A28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:7">
+      <c r="A29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
